--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Galr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H2">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I2">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J2">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569380383517159</v>
+        <v>0.690535</v>
       </c>
       <c r="N2">
-        <v>0.569380383517159</v>
+        <v>2.071605</v>
       </c>
       <c r="O2">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="P2">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="Q2">
-        <v>0.7769715302078937</v>
+        <v>4.028936815525</v>
       </c>
       <c r="R2">
-        <v>0.7769715302078937</v>
+        <v>36.260431339725</v>
       </c>
       <c r="S2">
-        <v>0.01950419422396251</v>
+        <v>0.04301870370988722</v>
       </c>
       <c r="T2">
-        <v>0.01950419422396251</v>
+        <v>0.04301870370988722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H3">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I3">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J3">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.56024171136764</v>
+        <v>1.920356666666667</v>
       </c>
       <c r="N3">
-        <v>1.56024171136764</v>
+        <v>5.76107</v>
       </c>
       <c r="O3">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="P3">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="Q3">
-        <v>2.129092299399466</v>
+        <v>11.20434977701667</v>
       </c>
       <c r="R3">
-        <v>2.129092299399466</v>
+        <v>100.83914799315</v>
       </c>
       <c r="S3">
-        <v>0.05344626941107995</v>
+        <v>0.1196336962798989</v>
       </c>
       <c r="T3">
-        <v>0.05344626941107995</v>
+        <v>0.1196336962798989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.3645913219005</v>
+        <v>5.834515</v>
       </c>
       <c r="H4">
-        <v>1.3645913219005</v>
+        <v>17.503545</v>
       </c>
       <c r="I4">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="J4">
-        <v>0.0891919009762101</v>
+        <v>0.1959004657849387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.474131651684567</v>
+        <v>0.533697</v>
       </c>
       <c r="N4">
-        <v>0.474131651684567</v>
+        <v>1.601091</v>
       </c>
       <c r="O4">
-        <v>0.18209542753775</v>
+        <v>0.1697191768377549</v>
       </c>
       <c r="P4">
-        <v>0.18209542753775</v>
+        <v>0.1697191768377549</v>
       </c>
       <c r="Q4">
-        <v>0.6469959373271107</v>
+        <v>3.113863151955</v>
       </c>
       <c r="R4">
-        <v>0.6469959373271107</v>
+        <v>28.02476836759499</v>
       </c>
       <c r="S4">
-        <v>0.01624143734116764</v>
+        <v>0.03324806579515257</v>
       </c>
       <c r="T4">
-        <v>0.01624143734116764</v>
+        <v>0.03324806579515257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H5">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I5">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J5">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.569380383517159</v>
+        <v>0.690535</v>
       </c>
       <c r="N5">
-        <v>0.569380383517159</v>
+        <v>2.071605</v>
       </c>
       <c r="O5">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="P5">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="Q5">
-        <v>0.3269110905305553</v>
+        <v>0.97201363884</v>
       </c>
       <c r="R5">
-        <v>0.3269110905305553</v>
+        <v>8.748122749559998</v>
       </c>
       <c r="S5">
-        <v>0.008206397732448811</v>
+        <v>0.01037861069702045</v>
       </c>
       <c r="T5">
-        <v>0.008206397732448811</v>
+        <v>0.01037861069702045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H6">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I6">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J6">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.56024171136764</v>
+        <v>1.920356666666667</v>
       </c>
       <c r="N6">
-        <v>1.56024171136764</v>
+        <v>5.76107</v>
       </c>
       <c r="O6">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="P6">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="Q6">
-        <v>0.8958164596464073</v>
+        <v>2.70314013256</v>
       </c>
       <c r="R6">
-        <v>0.8958164596464073</v>
+        <v>24.32826119304</v>
       </c>
       <c r="S6">
-        <v>0.02248753981151792</v>
+        <v>0.02886259819235985</v>
       </c>
       <c r="T6">
-        <v>0.02248753981151792</v>
+        <v>0.02886259819235985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5741523592912881</v>
+        <v>1.407624</v>
       </c>
       <c r="H7">
-        <v>0.5741523592912881</v>
+        <v>4.222872</v>
       </c>
       <c r="I7">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="J7">
-        <v>0.03752752897757323</v>
+        <v>0.04726257405286619</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.474131651684567</v>
+        <v>0.533697</v>
       </c>
       <c r="N7">
-        <v>0.474131651684567</v>
+        <v>1.601091</v>
       </c>
       <c r="O7">
-        <v>0.18209542753775</v>
+        <v>0.1697191768377549</v>
       </c>
       <c r="P7">
-        <v>0.18209542753775</v>
+        <v>0.1697191768377549</v>
       </c>
       <c r="Q7">
-        <v>0.2722238064293693</v>
+        <v>0.751244705928</v>
       </c>
       <c r="R7">
-        <v>0.2722238064293693</v>
+        <v>6.761202353351999</v>
       </c>
       <c r="S7">
-        <v>0.006833591433606498</v>
+        <v>0.008021365163485885</v>
       </c>
       <c r="T7">
-        <v>0.006833591433606498</v>
+        <v>0.008021365163485884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.3607544454876</v>
+        <v>0.8638146666666667</v>
       </c>
       <c r="H8">
-        <v>13.3607544454876</v>
+        <v>2.591444</v>
       </c>
       <c r="I8">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="J8">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569380383517159</v>
+        <v>0.690535</v>
       </c>
       <c r="N8">
-        <v>0.569380383517159</v>
+        <v>2.071605</v>
       </c>
       <c r="O8">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="P8">
-        <v>0.2186767409427097</v>
+        <v>0.2195946984481065</v>
       </c>
       <c r="Q8">
-        <v>7.607351490250317</v>
+        <v>0.5964942608466667</v>
       </c>
       <c r="R8">
-        <v>7.607351490250317</v>
+        <v>5.36844834762</v>
       </c>
       <c r="S8">
-        <v>0.1909661489862984</v>
+        <v>0.006369027623647952</v>
       </c>
       <c r="T8">
-        <v>0.1909661489862984</v>
+        <v>0.006369027623647952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.3607544454876</v>
+        <v>0.8638146666666667</v>
       </c>
       <c r="H9">
-        <v>13.3607544454876</v>
+        <v>2.591444</v>
       </c>
       <c r="I9">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="J9">
-        <v>0.8732805700462167</v>
+        <v>0.02900355823095177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.56024171136764</v>
+        <v>1.920356666666667</v>
       </c>
       <c r="N9">
-        <v>1.56024171136764</v>
+        <v>5.76107</v>
       </c>
       <c r="O9">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="P9">
-        <v>0.5992278315195403</v>
+        <v>0.6106861247141385</v>
       </c>
       <c r="Q9">
-        <v>20.84600638119038</v>
+        <v>1.658832253897778</v>
       </c>
       <c r="R9">
-        <v>20.84600638119038</v>
+        <v>14.92949028508</v>
       </c>
       <c r="S9">
-        <v>0.5232940222969424</v>
+        <v>0.01771207057898079</v>
       </c>
       <c r="T9">
-        <v>0.5232940222969424</v>
+        <v>0.01771207057898079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8638146666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.591444</v>
+      </c>
+      <c r="I10">
+        <v>0.02900355823095177</v>
+      </c>
+      <c r="J10">
+        <v>0.02900355823095177</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.533697</v>
+      </c>
+      <c r="N10">
+        <v>1.601091</v>
+      </c>
+      <c r="O10">
+        <v>0.1697191768377549</v>
+      </c>
+      <c r="P10">
+        <v>0.1697191768377549</v>
+      </c>
+      <c r="Q10">
+        <v>0.461015296156</v>
+      </c>
+      <c r="R10">
+        <v>4.149137665404</v>
+      </c>
+      <c r="S10">
+        <v>0.004922460028323026</v>
+      </c>
+      <c r="T10">
+        <v>0.004922460028323026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>13.3607544454876</v>
-      </c>
-      <c r="H10">
-        <v>13.3607544454876</v>
-      </c>
-      <c r="I10">
-        <v>0.8732805700462167</v>
-      </c>
-      <c r="J10">
-        <v>0.8732805700462167</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.474131651684567</v>
-      </c>
-      <c r="N10">
-        <v>0.474131651684567</v>
-      </c>
-      <c r="O10">
-        <v>0.18209542753775</v>
-      </c>
-      <c r="P10">
-        <v>0.18209542753775</v>
-      </c>
-      <c r="Q10">
-        <v>6.334756572990957</v>
-      </c>
-      <c r="R10">
-        <v>6.334756572990957</v>
-      </c>
-      <c r="S10">
-        <v>0.1590203987629758</v>
-      </c>
-      <c r="T10">
-        <v>0.1590203987629758</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H11">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I11">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J11">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.690535</v>
+      </c>
+      <c r="N11">
+        <v>2.071605</v>
+      </c>
+      <c r="O11">
+        <v>0.2195946984481065</v>
+      </c>
+      <c r="P11">
+        <v>0.2195946984481065</v>
+      </c>
+      <c r="Q11">
+        <v>14.96879947099667</v>
+      </c>
+      <c r="R11">
+        <v>134.71919523897</v>
+      </c>
+      <c r="S11">
+        <v>0.1598283564175509</v>
+      </c>
+      <c r="T11">
+        <v>0.1598283564175509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H12">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I12">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J12">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.920356666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.76107</v>
+      </c>
+      <c r="O12">
+        <v>0.6106861247141385</v>
+      </c>
+      <c r="P12">
+        <v>0.6106861247141385</v>
+      </c>
+      <c r="Q12">
+        <v>41.62777246066445</v>
+      </c>
+      <c r="R12">
+        <v>374.64995214598</v>
+      </c>
+      <c r="S12">
+        <v>0.444477759662899</v>
+      </c>
+      <c r="T12">
+        <v>0.444477759662899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21.67710466666666</v>
+      </c>
+      <c r="H13">
+        <v>65.03131399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="J13">
+        <v>0.7278334019312434</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.533697</v>
+      </c>
+      <c r="N13">
+        <v>1.601091</v>
+      </c>
+      <c r="O13">
+        <v>0.1697191768377549</v>
+      </c>
+      <c r="P13">
+        <v>0.1697191768377549</v>
+      </c>
+      <c r="Q13">
+        <v>11.569005729286</v>
+      </c>
+      <c r="R13">
+        <v>104.121051563574</v>
+      </c>
+      <c r="S13">
+        <v>0.1235272858507935</v>
+      </c>
+      <c r="T13">
+        <v>0.1235272858507935</v>
       </c>
     </row>
   </sheetData>
